--- a/outputs-r202/g__Blautia_A.xlsx
+++ b/outputs-r202/g__Blautia_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -817,6 +822,11 @@
           <t>s__Blautia_A sp900316115</t>
         </is>
       </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>s__Blautia_A sp900316115</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -964,6 +974,11 @@
           <t>s__Blautia_A sp902782975</t>
         </is>
       </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>s__Blautia_A sp902782975</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1107,6 +1122,11 @@
         <v>0.9889117568187308</v>
       </c>
       <c r="AU4" t="inlineStr">
+        <is>
+          <t>s__Blautia_A sp902803215</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
         <is>
           <t>s__Blautia_A sp902803215</t>
         </is>
